--- a/biology/Médecine/Bregma/Bregma.xlsx
+++ b/biology/Médecine/Bregma/Bregma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bregma est le point crâniométrique situé à l'intersection des sutures coronale et sagittale.
-C'est le point le plus haut de l'os frontal et le nom de l'angle antéro-supérieur de l'os pariétal[1].
+C'est le point le plus haut de l'os frontal et le nom de l'angle antéro-supérieur de l'os pariétal.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme « bregma » provient du mot grec βρέγμα ou βρέχμα (bregma ou brechma) signifiant « sommet de la tête, fontanelle », dérivé du verbe βρέχω (brechô), qui se traduit par « arroser, humecter » car, chez les nouveau-nés, cette partie est toujours humide.
 </t>
@@ -543,10 +557,12 @@
           <t>Embryologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bregma est occupé chez le nouveau-né par la fontanelle antérieure.
-La fontanelle antérieure est membraneuse et se ferme au cours des 18 à 36 premiers mois de la vie[2].
+La fontanelle antérieure est membraneuse et se ferme au cours des 18 à 36 premiers mois de la vie.
 </t>
         </is>
       </c>
@@ -577,12 +593,87 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dysostose cléidocrânienne
-Dans la dysostose cléidocrânienne, anomalie héréditaire, la fontanelle antérieure ne se ferme pas et le bregma n'existe pas.
-Repère chirurgical
-Le bregma est souvent utilisé comme point de référence dans la chirurgie stéréotaxique du cerveau : il peut être identifié par un grattage de la surface du crâne et un lavage pour rendre plus clair le point de rencontre des sutures[3],[4].
-Hauteur crânienne
-La hauteur crânienne est définie comme la distance entre le bregma et le basion[5]. Celle-ci est fortement lié à la croissance et peut être utilisée pour évaluer l'état de santé général d'une personne décédée dans le cadre d'une fouille archéologique.
+          <t>Dysostose cléidocrânienne</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la dysostose cléidocrânienne, anomalie héréditaire, la fontanelle antérieure ne se ferme pas et le bregma n'existe pas.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bregma</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bregma</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Aspect clinique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Repère chirurgical</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bregma est souvent utilisé comme point de référence dans la chirurgie stéréotaxique du cerveau : il peut être identifié par un grattage de la surface du crâne et un lavage pour rendre plus clair le point de rencontre des sutures,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bregma</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bregma</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Aspect clinique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Hauteur crânienne</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La hauteur crânienne est définie comme la distance entre le bregma et le basion. Celle-ci est fortement lié à la croissance et peut être utilisée pour évaluer l'état de santé général d'une personne décédée dans le cadre d'une fouille archéologique.
 </t>
         </is>
       </c>
